--- a/xls/AVČR-Masarykův ústav a Archiv AV ČR, v. v. i._All.xlsx
+++ b/xls/AVČR-Masarykův ústav a Archiv AV ČR, v. v. i._All.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="85">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,18 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
+    <t>IsLocalJournal</t>
+  </si>
+  <si>
+    <t>IsPredatoryJournal</t>
+  </si>
+  <si>
     <t>Jsc</t>
   </si>
   <si>
@@ -85,63 +97,39 @@
     <t>Bahenská, Marie, 2515350</t>
   </si>
   <si>
+    <t>Kučera, Rudolf, 5160804</t>
+  </si>
+  <si>
+    <t>Brodský, Pavel, 3170519</t>
+  </si>
+  <si>
+    <t>Petr, Stanislav, 8104123</t>
+  </si>
+  <si>
+    <t>Nebřenský, Zdeněk, 3021394</t>
+  </si>
+  <si>
+    <t>Malínská, Jana, 3923827</t>
+  </si>
+  <si>
+    <t>Hájková, Dagmara, 5805694</t>
+  </si>
+  <si>
     <t>Velek, Luboš, 1144138</t>
   </si>
   <si>
-    <t>Tomeš, Josef, 8844232</t>
-  </si>
-  <si>
-    <t>Kučera, Rudolf, 5160804</t>
-  </si>
-  <si>
-    <t>Brodský, Pavel, 3170519</t>
-  </si>
-  <si>
-    <t>Petr, Stanislav, 8104123</t>
-  </si>
-  <si>
-    <t>Koeltzsch, Ines</t>
-  </si>
-  <si>
-    <t>Hájková, Dagmara, 5805694; Horák, Pavel, 8530815</t>
-  </si>
-  <si>
-    <t>Nebřenský, Zdeněk, 3021394</t>
-  </si>
-  <si>
-    <t>Klečacký, Martin, 6854095</t>
-  </si>
-  <si>
-    <t>Malínská, Jana, 3923827</t>
-  </si>
-  <si>
-    <t>Hájková, Dagmara, 5805694</t>
-  </si>
-  <si>
-    <t>Kokešová, Helena, 7723709</t>
-  </si>
-  <si>
     <t>Mádlová, Vlasta, 7944330</t>
   </si>
   <si>
     <t>Hájková, Dagmara, 5805694; Hajdinová, Eva, 9807608</t>
   </si>
   <si>
-    <t>Pehr, Michal, 7254342</t>
-  </si>
-  <si>
     <t>Státní ústav pro lidovou píseň a Československá Akademie věd 1952?1953</t>
   </si>
   <si>
     <t>Liberální matka Božena Němcová?</t>
   </si>
   <si>
-    <t>Budování lokální a regionální organizace Národní strany v Čechách v 60. a 70. letech 19. století</t>
-  </si>
-  <si>
-    <t>Státoprávní pokrokáři v meziválečném Československu. Druhý život jedné strany</t>
-  </si>
-  <si>
     <t>Marginalizing Josefina. Work, Gender and Protest in Bohemia 1820-1844</t>
   </si>
   <si>
@@ -151,21 +139,12 @@
     <t>Eine neue Handschrift der "Rechtssumme" Bruder Bertholds in der Nationalbibliothek Prag</t>
   </si>
   <si>
-    <t>History takes place. Neuere Forschungen zur Geschichte multiethnischer Städte Zentral- und Osteuropas im 20. Jahrhundert</t>
-  </si>
-  <si>
-    <t>Oslavy narozenin prezidentů v meziválečném Československu</t>
-  </si>
-  <si>
     <t>From International Activity to Foreign Tourism: East-West Interaction, Czechoslovak Youth Travel, and Political Imagination after Stalin</t>
   </si>
   <si>
     <t>Frauengeschichtsschreibung in Tschechien</t>
   </si>
   <si>
-    <t>Iluze nezávislosti. Sociální status c. k. soudce v konfliktu loajalit mezi národem a státem na přelomu 19. a 20. století</t>
-  </si>
-  <si>
     <t>Frauen in der Politik: (un)erwünscht! Olga Stránská-Absolonová (1872?1927)</t>
   </si>
   <si>
@@ -175,24 +154,15 @@
     <t>?Der? erste weibliche Abgeordnete der Habsburgermonarchie im Böhmischen Landtag 1912</t>
   </si>
   <si>
-    <t>Vztahy Gustava Eima a Tomáše G. Masaryka</t>
-  </si>
-  <si>
     <t>František Burian (September 17, 1881?October 15, 1965) and the beginning of plastic surgery in Czechoslovakia</t>
   </si>
   <si>
     <t>?Mais Paris demeure un phare...? Influences de la France dans la vie d?Edvard et Hana Beneš avant 1919</t>
   </si>
   <si>
-    <t>Katolická církev, úprava svátkového práva a Marmaggiho aféra v meziválečném Československu</t>
-  </si>
-  <si>
     <t>0009-0794</t>
   </si>
   <si>
-    <t>1803-9243</t>
-  </si>
-  <si>
     <t>0022-4529</t>
   </si>
   <si>
@@ -208,9 +178,6 @@
     <t>1016-765X</t>
   </si>
   <si>
-    <t>0862-6111</t>
-  </si>
-  <si>
     <t>1318-0185</t>
   </si>
   <si>
@@ -223,9 +190,6 @@
     <t>Český lid, Etnologický časopis</t>
   </si>
   <si>
-    <t>Střed : časopis pro mezioborová studia Střední Evropy 19. a 20. století</t>
-  </si>
-  <si>
     <t>Journal of Social History</t>
   </si>
   <si>
@@ -241,9 +205,6 @@
     <t>Österreichische Zeitschrift für Geschichtswissenschaften</t>
   </si>
   <si>
-    <t>Český časopis historický</t>
-  </si>
-  <si>
     <t>Acta Histriae</t>
   </si>
   <si>
@@ -262,12 +223,6 @@
     <t>1a0f8e861f4bc74a5006425a61e0c751cae38d0e</t>
   </si>
   <si>
-    <t>2352fb0d8792c37732010def1ff735da423de537</t>
-  </si>
-  <si>
-    <t>28797e51b063e01df1b4a3926c0a3d4b1e800e8e</t>
-  </si>
-  <si>
     <t>4e9dbde4d60b1ed78d185d0e0a4c53942f1ec4b5</t>
   </si>
   <si>
@@ -277,21 +232,12 @@
     <t>8be4e428bfe532a49996a151f3833305b6fef156</t>
   </si>
   <si>
-    <t>8bf67e7aef4c50ad8482125ad6b7ca96aeb604ef</t>
-  </si>
-  <si>
-    <t>96ee549c8a726646a8d0fde9843ac456ffad9412</t>
-  </si>
-  <si>
     <t>987a2eee5186923e23b53fd616c02576da76280d</t>
   </si>
   <si>
     <t>9f48e7c01de8a0b906b39609ae2f5a3c1d0db217</t>
   </si>
   <si>
-    <t>a5a0c265ae5df11fdaff85212a87f0fedd6204ae</t>
-  </si>
-  <si>
     <t>b853a80c40927ab29ffd2522b9c3da790552e6f4</t>
   </si>
   <si>
@@ -301,18 +247,12 @@
     <t>c70fc711f11cc9072f93019288907ccb1cd06877</t>
   </si>
   <si>
-    <t>c747f2db66b2c40078c1e4528b6bc855cb914a62</t>
-  </si>
-  <si>
     <t>ccac84350d13a0a9e9534f5e8ba8c9da7e282faa</t>
   </si>
   <si>
     <t>f4d6371e32bea7482358df5ceed9e4b1f6ebc79a</t>
   </si>
   <si>
-    <t>fdb0f07fc3c723a51a61ff5495bb9604da19cd47</t>
-  </si>
-  <si>
     <t>Masarykův ústav a Archiv AV ČR, v. v. i.</t>
   </si>
   <si>
@@ -323,6 +263,12 @@
   </si>
   <si>
     <t>AVČR-Masarykův ústav a Archiv AV ČR, v. v. i.</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
   </si>
 </sst>
 </file>
@@ -680,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,7 +637,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,13 +695,25 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -764,48 +722,60 @@
         <v>11.576922</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
       <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
         <v>79</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>80</v>
-      </c>
-      <c r="L2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O2" t="s">
-        <v>100</v>
       </c>
       <c r="P2">
         <v>67985921</v>
       </c>
       <c r="Q2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2012</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -814,890 +784,672 @@
         <v>13.861</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
         <v>68</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>79</v>
       </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" t="s">
-        <v>99</v>
-      </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P3">
         <v>67985921</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="T3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:23">
       <c r="A4">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>11.254416</v>
+        <v>22.962</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
         <v>58</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>79</v>
       </c>
-      <c r="K4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" t="s">
-        <v>99</v>
-      </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P4">
         <v>67985921</v>
       </c>
       <c r="Q4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="R4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="T4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:23">
       <c r="A5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>11.254416</v>
+        <v>9.0322981</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>99</v>
-      </c>
       <c r="O5" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P5">
         <v>67985921</v>
       </c>
       <c r="Q5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="R5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="T5" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>2012</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>22.962</v>
+        <v>12.233</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>99</v>
-      </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P6">
         <v>67985921</v>
       </c>
       <c r="Q6" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="R6" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="T6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>9.0322981</v>
+        <v>19.397312</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
         <v>79</v>
       </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>99</v>
-      </c>
       <c r="O7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P7">
         <v>67985921</v>
       </c>
       <c r="Q7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="T7" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:23">
       <c r="A8">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>12.233</v>
+        <v>17.574774</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
         <v>79</v>
       </c>
-      <c r="K8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P8">
         <v>67985921</v>
       </c>
       <c r="Q8" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="T8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>2015</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>11.568929</v>
+        <v>17.574774</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" t="s">
         <v>79</v>
       </c>
-      <c r="K9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P9">
         <v>67985921</v>
       </c>
       <c r="Q9" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="T9" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" t="s">
+        <v>84</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:23">
       <c r="A10">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>11.568929</v>
+        <v>6.402348</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
         <v>79</v>
       </c>
-      <c r="K10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" t="s">
-        <v>99</v>
-      </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P10">
         <v>67985921</v>
       </c>
       <c r="Q10" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="T10" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2015</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>19.397312</v>
+        <v>17.574774</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" t="s">
-        <v>73</v>
-      </c>
       <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
         <v>79</v>
       </c>
-      <c r="K11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" t="s">
-        <v>99</v>
-      </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P11">
         <v>67985921</v>
       </c>
       <c r="Q11" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="T11" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:23">
       <c r="A12">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="D12">
-        <v>17.574774</v>
+        <v>6.3449998</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
         <v>79</v>
       </c>
-      <c r="K12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" t="s">
-        <v>99</v>
-      </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P12">
         <v>67985921</v>
       </c>
       <c r="Q12" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="T12" t="s">
+        <v>83</v>
+      </c>
+      <c r="U12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:23">
       <c r="A13">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>21.046854</v>
+        <v>9.850308399999999</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" t="s">
         <v>79</v>
       </c>
-      <c r="K13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" t="s">
-        <v>99</v>
-      </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P13">
         <v>67985921</v>
       </c>
       <c r="Q13" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14">
-        <v>2015</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>17.574774</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" t="s">
-        <v>99</v>
-      </c>
-      <c r="O14" t="s">
-        <v>100</v>
-      </c>
-      <c r="P14">
-        <v>67985921</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>101</v>
-      </c>
-      <c r="R14" t="s">
-        <v>102</v>
-      </c>
-      <c r="S14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15">
-        <v>2014</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>0.5</v>
-      </c>
-      <c r="D15">
-        <v>6.402348</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" t="s">
-        <v>99</v>
-      </c>
-      <c r="O15" t="s">
-        <v>100</v>
-      </c>
-      <c r="P15">
-        <v>67985921</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>101</v>
-      </c>
-      <c r="R15" t="s">
-        <v>102</v>
-      </c>
-      <c r="S15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16">
-        <v>2015</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>17.574774</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" t="s">
-        <v>99</v>
-      </c>
-      <c r="O16" t="s">
-        <v>100</v>
-      </c>
-      <c r="P16">
-        <v>67985921</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>101</v>
-      </c>
-      <c r="R16" t="s">
-        <v>102</v>
-      </c>
-      <c r="S16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17">
-        <v>2012</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>10.611</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" t="s">
-        <v>100</v>
-      </c>
-      <c r="P17">
-        <v>67985921</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>101</v>
-      </c>
-      <c r="R17" t="s">
-        <v>102</v>
-      </c>
-      <c r="S17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18">
-        <v>2012</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>0.333</v>
-      </c>
-      <c r="D18">
-        <v>6.3449998</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" t="s">
-        <v>99</v>
-      </c>
-      <c r="O18" t="s">
-        <v>100</v>
-      </c>
-      <c r="P18">
-        <v>67985921</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>101</v>
-      </c>
-      <c r="R18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19">
-        <v>2015</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>9.850308399999999</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" t="s">
-        <v>99</v>
-      </c>
-      <c r="O19" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19">
-        <v>67985921</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>101</v>
-      </c>
-      <c r="R19" t="s">
-        <v>102</v>
-      </c>
-      <c r="S19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20">
-        <v>2015</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>11.568929</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" t="s">
-        <v>99</v>
-      </c>
-      <c r="O20" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20">
-        <v>67985921</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>101</v>
-      </c>
-      <c r="R20" t="s">
-        <v>102</v>
-      </c>
-      <c r="S20" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="T13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xls/AVČR-Masarykův ústav a Archiv AV ČR, v. v. i._All.xlsx
+++ b/xls/AVČR-Masarykův ústav a Archiv AV ČR, v. v. i._All.xlsx
@@ -79,10 +79,10 @@
     <t>Record_FOS_category</t>
   </si>
   <si>
-    <t>IsLocalJournal</t>
-  </si>
-  <si>
-    <t>IsPredatoryJournal</t>
+    <t>Místní časopis</t>
+  </si>
+  <si>
+    <t>Predátorský časopis</t>
   </si>
   <si>
     <t>Jsc</t>
